--- a/biology/Botanique/Allenrolfea/Allenrolfea.xlsx
+++ b/biology/Botanique/Allenrolfea/Allenrolfea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allenrolfea est un genre de plantes de la famille des Amaranthaceae.
 Son nom honore la mémoire du botaniste anglais Robert Allen Rolfe (1855-1921). Elle était classée autrefois dans la famille, désormais invalide, des Chenopodiaceae.
@@ -512,15 +524,17 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (10 décembre 2019)[2] et ITIS      (10 décembre 2019)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (10 décembre 2019) et ITIS      (10 décembre 2019) :
 Allenrolfea occidentalis (S. Wats.) Kuntze
-Selon Catalogue of Life                                   (10 décembre 2019)[4] et The Plant List            (10 décembre 2019)[5] :
+Selon Catalogue of Life                                   (10 décembre 2019) et The Plant List            (10 décembre 2019) :
 Allenrolfea occidentalis (S.Watson) Kuntze
 Allenrolfea patagonica (Moq.) Kuntze
 Allenrolfea vaginata (Griseb.) Kuntze
-Selon Tropicos                                           (10 décembre 2019)[1] :
+Selon Tropicos                                           (10 décembre 2019) :
 Allenrolfea mexicana Lundell
 Allenrolfea occidentalis (S. Watson) Kuntze
 Allenrolfea patagonica (Moq.) Kuntze
